--- a/System udvikling/Hændelsestabel.xlsx
+++ b/System udvikling/Hændelsestabel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Hændelser/Klasser</t>
   </si>
@@ -64,13 +64,58 @@
   </si>
   <si>
     <t>KontoudtogLinje</t>
+  </si>
+  <si>
+    <t>Bruger skal finde en vare på lageret</t>
+  </si>
+  <si>
+    <t>Der ønskes et udtræk af varelager</t>
+  </si>
+  <si>
+    <t>Kunde henvender sig for at købe en gravsten</t>
+  </si>
+  <si>
+    <t>Bedemand henvender sig for at købe en gravsten</t>
+  </si>
+  <si>
+    <t>Faktura er ikke betalt indenfor betalingsfrist</t>
+  </si>
+  <si>
+    <t>Bruger ønsker at ændre info om en vare på lageret</t>
+  </si>
+  <si>
+    <t>Bruger ønsker at fjerne en vare på lageret</t>
+  </si>
+  <si>
+    <t>Bruger ønsker at tilføje en vare på lageret</t>
+  </si>
+  <si>
+    <t>Betaling for faktura modtaget indenfor betalingsfrist</t>
+  </si>
+  <si>
+    <t>Ordre er modtaget</t>
+  </si>
+  <si>
+    <t>Ordre er sendt</t>
+  </si>
+  <si>
+    <t>Ordre er produceret</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Kunde henvender sig for at købe en vare i udstilling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +130,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -107,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,17 +167,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,25 +490,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
     <col min="15" max="15" width="16.28515625" customWidth="1"/>
@@ -446,522 +517,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/System udvikling/Hændelsestabel.xlsx
+++ b/System udvikling/Hændelsestabel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Hændelser/Klasser</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Ordre</t>
   </si>
   <si>
-    <t>Kirkegård_ordre</t>
-  </si>
-  <si>
     <t>varelinje</t>
   </si>
   <si>
@@ -66,49 +63,52 @@
     <t>KontoudtogLinje</t>
   </si>
   <si>
-    <t>Bruger skal finde en vare på lageret</t>
-  </si>
-  <si>
-    <t>Der ønskes et udtræk af varelager</t>
-  </si>
-  <si>
-    <t>Kunde henvender sig for at købe en gravsten</t>
-  </si>
-  <si>
-    <t>Bedemand henvender sig for at købe en gravsten</t>
-  </si>
-  <si>
     <t>Faktura er ikke betalt indenfor betalingsfrist</t>
   </si>
   <si>
-    <t>Bruger ønsker at ændre info om en vare på lageret</t>
-  </si>
-  <si>
-    <t>Bruger ønsker at fjerne en vare på lageret</t>
-  </si>
-  <si>
-    <t>Bruger ønsker at tilføje en vare på lageret</t>
-  </si>
-  <si>
     <t>Betaling for faktura modtaget indenfor betalingsfrist</t>
   </si>
   <si>
-    <t>Ordre er modtaget</t>
-  </si>
-  <si>
     <t>Ordre er sendt</t>
   </si>
   <si>
     <t>Ordre er produceret</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Kunde henvender sig for at købe en vare i udstilling</t>
+    <t>Tilføjelse</t>
+  </si>
+  <si>
+    <t>Der tilføjes en ny varegruppe på lageret</t>
+  </si>
+  <si>
+    <t>Kunde henvender sig for at købe vare i butikken</t>
+  </si>
+  <si>
+    <t>Kunde henvender sig for at købe en ydelse</t>
+  </si>
+  <si>
+    <t>Kunde henvender sig for at købe en ny sten</t>
+  </si>
+  <si>
+    <t>Bedemand henvender sig for at købe en ny sten</t>
+  </si>
+  <si>
+    <t>Der redigeres i vareinfo</t>
+  </si>
+  <si>
+    <t>Vare fjernes manuelt fra lager</t>
+  </si>
+  <si>
+    <t>Ny vare tilføjes på lager</t>
+  </si>
+  <si>
+    <t>Ordre annulleret</t>
+  </si>
+  <si>
+    <t>Ny vare produceret</t>
+  </si>
+  <si>
+    <t>Vare indgår i ordre</t>
   </si>
 </sst>
 </file>
@@ -490,18 +490,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" customWidth="1"/>
+    <col min="1" max="1" width="66.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
@@ -527,59 +526,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -592,18 +587,14 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -616,18 +607,14 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -640,18 +627,14 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -664,18 +647,14 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -688,32 +667,18 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -722,112 +687,74 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -840,12 +767,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -854,9 +779,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -864,11 +787,9 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -878,9 +799,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -888,11 +807,9 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -902,13 +819,51 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/System udvikling/Hændelsestabel.xlsx
+++ b/System udvikling/Hændelsestabel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Hændelser/Klasser</t>
   </si>
@@ -63,15 +63,6 @@
     <t>KontoudtogLinje</t>
   </si>
   <si>
-    <t>Faktura er ikke betalt indenfor betalingsfrist</t>
-  </si>
-  <si>
-    <t>Betaling for faktura modtaget indenfor betalingsfrist</t>
-  </si>
-  <si>
-    <t>Ordre er sendt</t>
-  </si>
-  <si>
     <t>Ordre er produceret</t>
   </si>
   <si>
@@ -109,6 +100,30 @@
   </si>
   <si>
     <t>Vare indgår i ordre</t>
+  </si>
+  <si>
+    <t>Ordre rettes</t>
+  </si>
+  <si>
+    <t>Ordre er leveret</t>
+  </si>
+  <si>
+    <t>Ordre laves til faktura</t>
+  </si>
+  <si>
+    <t>faktura sendes</t>
+  </si>
+  <si>
+    <t>faktura annulleres</t>
+  </si>
+  <si>
+    <t>faktura rettes</t>
+  </si>
+  <si>
+    <t>faktura betalt</t>
+  </si>
+  <si>
+    <t>Rykker sendes</t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -567,7 +582,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -587,7 +602,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -607,7 +622,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -627,7 +642,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -647,7 +662,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -667,7 +682,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -687,7 +702,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -707,7 +722,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -727,7 +742,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -747,7 +762,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -767,14 +782,14 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -787,7 +802,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -807,7 +822,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -827,7 +842,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -847,7 +862,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -859,11 +874,111 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/System udvikling/Hændelsestabel.xlsx
+++ b/System udvikling/Hændelsestabel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Hændelser/Klasser</t>
   </si>
@@ -63,6 +63,15 @@
     <t>KontoudtogLinje</t>
   </si>
   <si>
+    <t>Faktura er ikke betalt indenfor betalingsfrist</t>
+  </si>
+  <si>
+    <t>Betaling for faktura modtaget indenfor betalingsfrist</t>
+  </si>
+  <si>
+    <t>Ordre er sendt</t>
+  </si>
+  <si>
     <t>Ordre er produceret</t>
   </si>
   <si>
@@ -100,30 +109,6 @@
   </si>
   <si>
     <t>Vare indgår i ordre</t>
-  </si>
-  <si>
-    <t>Ordre rettes</t>
-  </si>
-  <si>
-    <t>Ordre er leveret</t>
-  </si>
-  <si>
-    <t>Ordre laves til faktura</t>
-  </si>
-  <si>
-    <t>faktura sendes</t>
-  </si>
-  <si>
-    <t>faktura annulleres</t>
-  </si>
-  <si>
-    <t>faktura rettes</t>
-  </si>
-  <si>
-    <t>faktura betalt</t>
-  </si>
-  <si>
-    <t>Rykker sendes</t>
   </si>
 </sst>
 </file>
@@ -505,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -582,7 +567,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -602,7 +587,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -622,7 +607,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -642,7 +627,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -662,7 +647,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -682,7 +667,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -702,7 +687,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -722,7 +707,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -742,7 +727,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -762,7 +747,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -782,14 +767,14 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -802,7 +787,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -822,7 +807,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -842,7 +827,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -862,7 +847,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -874,111 +859,11 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/System udvikling/Hændelsestabel.xlsx
+++ b/System udvikling/Hændelsestabel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Hændelser/Klasser</t>
   </si>
@@ -36,18 +36,9 @@
     <t>Varegrupper</t>
   </si>
   <si>
-    <t>AndenLinje</t>
-  </si>
-  <si>
     <t>Dekoration</t>
   </si>
   <si>
-    <t>Gravsten</t>
-  </si>
-  <si>
-    <t>Skrifttype</t>
-  </si>
-  <si>
     <t>Faktura</t>
   </si>
   <si>
@@ -63,30 +54,12 @@
     <t>KontoudtogLinje</t>
   </si>
   <si>
-    <t>Ordre er produceret</t>
-  </si>
-  <si>
-    <t>Tilføjelse</t>
-  </si>
-  <si>
     <t>Der tilføjes en ny varegruppe på lageret</t>
   </si>
   <si>
     <t>Kunde henvender sig for at købe vare i butikken</t>
   </si>
   <si>
-    <t>Kunde henvender sig for at købe en ydelse</t>
-  </si>
-  <si>
-    <t>Kunde henvender sig for at købe en ny sten</t>
-  </si>
-  <si>
-    <t>Bedemand henvender sig for at købe en ny sten</t>
-  </si>
-  <si>
-    <t>Der redigeres i vareinfo</t>
-  </si>
-  <si>
     <t>Vare fjernes manuelt fra lager</t>
   </si>
   <si>
@@ -99,9 +72,6 @@
     <t>Ny vare produceret</t>
   </si>
   <si>
-    <t>Vare indgår i ordre</t>
-  </si>
-  <si>
     <t>Ordre rettes</t>
   </si>
   <si>
@@ -124,13 +94,49 @@
   </si>
   <si>
     <t>Rykker sendes</t>
+  </si>
+  <si>
+    <t>Der redigeres i informationer om en vare</t>
+  </si>
+  <si>
+    <t>Vare føjes til ordre</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Inskription</t>
+  </si>
+  <si>
+    <t>Tegntype</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Konstanter</t>
+  </si>
+  <si>
+    <t>ydelse føjes til ordre</t>
+  </si>
+  <si>
+    <t>TomLinje</t>
+  </si>
+  <si>
+    <t>Bedemand henvender sig for at købe en ny sten (ordre oprettes)</t>
+  </si>
+  <si>
+    <t>Kunde henvender sig for at købe en ny sten(ordre oprettes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +153,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Symbol"/>
       <family val="1"/>
       <charset val="2"/>
@@ -201,16 +219,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,92 +527,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="18">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -599,17 +630,20 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" ht="18">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -619,58 +653,67 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" s="7" customFormat="1" ht="18">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" s="7" customFormat="1" ht="18">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="18">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -679,117 +722,197 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="18">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="18">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="18">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="18">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="18">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -799,14 +922,17 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="18">
       <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -819,14 +945,17 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="18">
       <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -839,12 +968,13 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="18">
       <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -859,32 +989,38 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="18">
       <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="18">
       <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -895,16 +1031,19 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -915,16 +1054,19 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="18">
       <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -935,16 +1077,19 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="18">
       <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -955,30 +1100,13 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
